--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Notch2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H2">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I2">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J2">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>20.48821684811498</v>
+        <v>21.158050496691</v>
       </c>
       <c r="R2">
-        <v>20.48821684811498</v>
+        <v>84.632201986764</v>
       </c>
       <c r="S2">
-        <v>0.004537474825254236</v>
+        <v>0.004365311836737096</v>
       </c>
       <c r="T2">
-        <v>0.004537474825254236</v>
+        <v>0.00275688222243322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H3">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I3">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J3">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>260.3750422138614</v>
+        <v>277.300690758865</v>
       </c>
       <c r="R3">
-        <v>260.3750422138614</v>
+        <v>1663.80414455319</v>
       </c>
       <c r="S3">
-        <v>0.05766461805477249</v>
+        <v>0.05721245385506394</v>
       </c>
       <c r="T3">
-        <v>0.05766461805477249</v>
+        <v>0.05419818886960744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H4">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I4">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J4">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>694.2464882977563</v>
+        <v>723.1853285891991</v>
       </c>
       <c r="R4">
-        <v>694.2464882977563</v>
+        <v>4339.111971535194</v>
       </c>
       <c r="S4">
-        <v>0.1537530565263446</v>
+        <v>0.1492070110872816</v>
       </c>
       <c r="T4">
-        <v>0.1537530565263446</v>
+        <v>0.1413459696740892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H5">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I5">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J5">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>828.9437762708108</v>
+        <v>845.4870504656781</v>
       </c>
       <c r="R5">
-        <v>828.9437762708108</v>
+        <v>5072.922302794069</v>
       </c>
       <c r="S5">
-        <v>0.1835841324925279</v>
+        <v>0.174440203258943</v>
       </c>
       <c r="T5">
-        <v>0.1835841324925279</v>
+        <v>0.1652497392723541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H6">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I6">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J6">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>26.90530548973831</v>
+        <v>28.429803049673</v>
       </c>
       <c r="R6">
-        <v>26.90530548973831</v>
+        <v>170.578818298038</v>
       </c>
       <c r="S6">
-        <v>0.005958651610849888</v>
+        <v>0.005865613932070503</v>
       </c>
       <c r="T6">
-        <v>0.005958651610849888</v>
+        <v>0.005556581308886119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H7">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I7">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J7">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>451.1230095773921</v>
+        <v>494.173437290949</v>
       </c>
       <c r="R7">
-        <v>451.1230095773921</v>
+        <v>1976.693749163796</v>
       </c>
       <c r="S7">
-        <v>0.09990909966567796</v>
+        <v>0.1019574632145156</v>
       </c>
       <c r="T7">
-        <v>0.09990909966567796</v>
+        <v>0.06439052427250816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H8">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J8">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>10.86243331062663</v>
+        <v>0.2475164723273333</v>
       </c>
       <c r="R8">
-        <v>10.86243331062663</v>
+        <v>1.485098833964</v>
       </c>
       <c r="S8">
-        <v>0.002405676299375272</v>
+        <v>5.10673980387229E-05</v>
       </c>
       <c r="T8">
-        <v>0.002405676299375272</v>
+        <v>4.837688820328664E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H9">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J9">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>138.0455191765447</v>
+        <v>3.243989268354444</v>
       </c>
       <c r="R9">
-        <v>138.0455191765447</v>
+        <v>29.19590341519</v>
       </c>
       <c r="S9">
-        <v>0.0305726004681736</v>
+        <v>0.0006692972376453339</v>
       </c>
       <c r="T9">
-        <v>0.0305726004681736</v>
+        <v>0.0009510524977927762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H10">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J10">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>368.0752813276152</v>
+        <v>8.460150021821557</v>
       </c>
       <c r="R10">
-        <v>368.0752813276152</v>
+        <v>76.141350196394</v>
       </c>
       <c r="S10">
-        <v>0.08151672423244997</v>
+        <v>0.00174549129829353</v>
       </c>
       <c r="T10">
-        <v>0.08151672423244997</v>
+        <v>0.002480293904929119</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H11">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J11">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>439.4890270223358</v>
+        <v>9.890891042274223</v>
       </c>
       <c r="R11">
-        <v>439.4890270223358</v>
+        <v>89.018019380468</v>
       </c>
       <c r="S11">
-        <v>0.09733255025914082</v>
+        <v>0.002040680626481594</v>
       </c>
       <c r="T11">
-        <v>0.09733255025914082</v>
+        <v>0.002899749614746042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H12">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J12">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>14.26464239181498</v>
+        <v>0.3325847322708889</v>
       </c>
       <c r="R12">
-        <v>14.26464239181498</v>
+        <v>2.993262590438</v>
       </c>
       <c r="S12">
-        <v>0.003159155148734669</v>
+        <v>6.861861251003293E-05</v>
       </c>
       <c r="T12">
-        <v>0.003159155148734669</v>
+        <v>9.750511305310843E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H13">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J13">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N13">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O13">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P13">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q13">
-        <v>239.1761880865903</v>
+        <v>5.781065034099334</v>
       </c>
       <c r="R13">
-        <v>239.1761880865903</v>
+        <v>34.686390204596</v>
       </c>
       <c r="S13">
-        <v>0.05296976014498913</v>
+        <v>0.001192744654156467</v>
       </c>
       <c r="T13">
-        <v>0.05296976014498913</v>
+        <v>0.001129904342207567</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H14">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I14">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J14">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N14">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O14">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P14">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q14">
-        <v>9.187402347946616</v>
+        <v>0.04206886577733333</v>
       </c>
       <c r="R14">
-        <v>9.187402347946616</v>
+        <v>0.252413194664</v>
       </c>
       <c r="S14">
-        <v>0.002034711325652769</v>
+        <v>8.679614304003017E-06</v>
       </c>
       <c r="T14">
-        <v>0.002034711325652769</v>
+        <v>8.222324750401602E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H15">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I15">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J15">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N15">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O15">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P15">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q15">
-        <v>116.7583441700258</v>
+        <v>0.5513610784377777</v>
       </c>
       <c r="R15">
-        <v>116.7583441700258</v>
+        <v>4.96224970594</v>
       </c>
       <c r="S15">
-        <v>0.02585818235121837</v>
+        <v>0.0001137563710038872</v>
       </c>
       <c r="T15">
-        <v>0.02585818235121837</v>
+        <v>0.0001616445948047055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H16">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I16">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J16">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N16">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O16">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P16">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q16">
-        <v>311.3165906005792</v>
+        <v>1.437920120538222</v>
       </c>
       <c r="R16">
-        <v>311.3165906005792</v>
+        <v>12.941281084844</v>
       </c>
       <c r="S16">
-        <v>0.06894651706422528</v>
+        <v>0.0002966705143013822</v>
       </c>
       <c r="T16">
-        <v>0.06894651706422528</v>
+        <v>0.0004215604335084829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H17">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I17">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J17">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N17">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O17">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P17">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q17">
-        <v>371.7180491052288</v>
+        <v>1.681094449040889</v>
       </c>
       <c r="R17">
-        <v>371.7180491052288</v>
+        <v>15.129850041368</v>
       </c>
       <c r="S17">
-        <v>0.08232347902266443</v>
+        <v>0.0003468420447440996</v>
       </c>
       <c r="T17">
-        <v>0.08232347902266443</v>
+        <v>0.000492852763226595</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H18">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I18">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J18">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N18">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O18">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P18">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q18">
-        <v>12.06497708712925</v>
+        <v>0.05652739928755555</v>
       </c>
       <c r="R18">
-        <v>12.06497708712925</v>
+        <v>0.508746593588</v>
       </c>
       <c r="S18">
-        <v>0.002672000701962256</v>
+        <v>1.166268722387831E-05</v>
       </c>
       <c r="T18">
-        <v>0.002672000701962256</v>
+        <v>1.657234960996959E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.099916</v>
+      </c>
+      <c r="I19">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J19">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.501953</v>
+      </c>
+      <c r="N19">
+        <v>59.003906</v>
+      </c>
+      <c r="O19">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P19">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q19">
+        <v>0.9825723786493333</v>
+      </c>
+      <c r="R19">
+        <v>5.895434271896001</v>
+      </c>
+      <c r="S19">
+        <v>0.0002027235371065813</v>
+      </c>
+      <c r="T19">
+        <v>0.0001920429524007363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H20">
+        <v>27.314064</v>
+      </c>
+      <c r="I20">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J20">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.263127</v>
+      </c>
+      <c r="N20">
+        <v>2.526254</v>
+      </c>
+      <c r="O20">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P20">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q20">
+        <v>11.500377239376</v>
+      </c>
+      <c r="R20">
+        <v>69.00226343625599</v>
+      </c>
+      <c r="S20">
+        <v>0.002372748514700887</v>
+      </c>
+      <c r="T20">
+        <v>0.002247739145494749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H21">
+        <v>27.314064</v>
+      </c>
+      <c r="I21">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J21">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N21">
+        <v>49.664215</v>
+      </c>
+      <c r="O21">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P21">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q21">
+        <v>150.72572744664</v>
+      </c>
+      <c r="R21">
+        <v>1356.53154701976</v>
+      </c>
+      <c r="S21">
+        <v>0.03109760997245606</v>
+      </c>
+      <c r="T21">
+        <v>0.04418882669191915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H22">
+        <v>27.314064</v>
+      </c>
+      <c r="I22">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J22">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N22">
+        <v>129.521609</v>
+      </c>
+      <c r="O22">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P22">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q22">
+        <v>393.084613067664</v>
+      </c>
+      <c r="R22">
+        <v>3537.761517608976</v>
+      </c>
+      <c r="S22">
+        <v>0.08110089890048509</v>
+      </c>
+      <c r="T22">
+        <v>0.1152420899627532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H23">
+        <v>27.314064</v>
+      </c>
+      <c r="I23">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J23">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N23">
+        <v>151.425698</v>
+      </c>
+      <c r="O23">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P23">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q23">
+        <v>459.561245157408</v>
+      </c>
+      <c r="R23">
+        <v>4136.051206416672</v>
+      </c>
+      <c r="S23">
+        <v>0.0948163037754834</v>
+      </c>
+      <c r="T23">
+        <v>0.134731293459987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H24">
+        <v>27.314064</v>
+      </c>
+      <c r="I24">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J24">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N24">
+        <v>5.091743</v>
+      </c>
+      <c r="O24">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P24">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q24">
+        <v>15.452910463728</v>
+      </c>
+      <c r="R24">
+        <v>139.076194173552</v>
+      </c>
+      <c r="S24">
+        <v>0.00318823196730248</v>
+      </c>
+      <c r="T24">
+        <v>0.004530387704442576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H25">
+        <v>27.314064</v>
+      </c>
+      <c r="I25">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J25">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.501953</v>
+      </c>
+      <c r="N25">
+        <v>59.003906</v>
+      </c>
+      <c r="O25">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P25">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q25">
+        <v>268.606077455664</v>
+      </c>
+      <c r="R25">
+        <v>1611.636464733984</v>
+      </c>
+      <c r="S25">
+        <v>0.05541858828251267</v>
+      </c>
+      <c r="T25">
+        <v>0.05249883394674191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.888947</v>
+      </c>
+      <c r="H26">
+        <v>15.777894</v>
+      </c>
+      <c r="I26">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J26">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.263127</v>
+      </c>
+      <c r="N26">
+        <v>2.526254</v>
+      </c>
+      <c r="O26">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P26">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q26">
+        <v>9.964741957268998</v>
+      </c>
+      <c r="R26">
+        <v>39.85896782907599</v>
+      </c>
+      <c r="S26">
+        <v>0.002055917487431093</v>
+      </c>
+      <c r="T26">
+        <v>0.001298400339739511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.888947</v>
+      </c>
+      <c r="H27">
+        <v>15.777894</v>
+      </c>
+      <c r="I27">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J27">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N27">
+        <v>49.664215</v>
+      </c>
+      <c r="O27">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P27">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q27">
+        <v>130.599453310535</v>
+      </c>
+      <c r="R27">
+        <v>783.59671986321</v>
+      </c>
+      <c r="S27">
+        <v>0.02694517339851485</v>
+      </c>
+      <c r="T27">
+        <v>0.02552555429062007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.888947</v>
+      </c>
+      <c r="H28">
+        <v>15.777894</v>
+      </c>
+      <c r="I28">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J28">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N28">
+        <v>129.521609</v>
+      </c>
+      <c r="O28">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P28">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q28">
+        <v>340.596369585241</v>
+      </c>
+      <c r="R28">
+        <v>2043.578217511446</v>
+      </c>
+      <c r="S28">
+        <v>0.07027156702989551</v>
+      </c>
+      <c r="T28">
+        <v>0.06656927653720017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="H19">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="I19">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="J19">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="N19">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="O19">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="P19">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="Q19">
-        <v>202.294256651496</v>
-      </c>
-      <c r="R19">
-        <v>202.294256651496</v>
-      </c>
-      <c r="S19">
-        <v>0.04480160980598631</v>
-      </c>
-      <c r="T19">
-        <v>0.04480160980598631</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.888947</v>
+      </c>
+      <c r="H29">
+        <v>15.777894</v>
+      </c>
+      <c r="I29">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J29">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N29">
+        <v>151.425698</v>
+      </c>
+      <c r="O29">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P29">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q29">
+        <v>398.196435320002</v>
+      </c>
+      <c r="R29">
+        <v>2389.178611920012</v>
+      </c>
+      <c r="S29">
+        <v>0.08215556592611285</v>
+      </c>
+      <c r="T29">
+        <v>0.0778271613735169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.888947</v>
+      </c>
+      <c r="H30">
+        <v>15.777894</v>
+      </c>
+      <c r="I30">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J30">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N30">
+        <v>5.091743</v>
+      </c>
+      <c r="O30">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P30">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q30">
+        <v>13.389496888207</v>
+      </c>
+      <c r="R30">
+        <v>80.33698132924201</v>
+      </c>
+      <c r="S30">
+        <v>0.002762510150128703</v>
+      </c>
+      <c r="T30">
+        <v>0.002616966006215636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.888947</v>
+      </c>
+      <c r="H31">
+        <v>15.777894</v>
+      </c>
+      <c r="I31">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J31">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.501953</v>
+      </c>
+      <c r="N31">
+        <v>59.003906</v>
+      </c>
+      <c r="O31">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P31">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q31">
+        <v>232.739343613491</v>
+      </c>
+      <c r="R31">
+        <v>930.957374453964</v>
+      </c>
+      <c r="S31">
+        <v>0.04801859281455483</v>
+      </c>
+      <c r="T31">
+        <v>0.03032580714225813</v>
       </c>
     </row>
   </sheetData>
